--- a/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.29186955894857564/Performance_0.29186955894857564.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.29186955894857564/Performance_0.29186955894857564.xlsx
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>673.8925412446074</v>
+        <v>669.8365753375007</v>
       </c>
     </row>
     <row r="3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>127.04038079188123</v>
+        <v>123.1279686899882</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>222.965630998988</v>
+        <v>224.687947400234</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1023.8985530354767</v>
+        <v>1017.6524914277227</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1177.483335990798</v>
+        <v>1170.3003651418812</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1152.0001152115724</v>
+        <v>1149.2769671512674</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2210.9335342670847</v>
+        <v>2197.626559506236</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>416.7991495796629</v>
+        <v>403.96315187004006</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>731.5145373982546</v>
+        <v>737.1651817592979</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3359.247221245002</v>
+        <v>3338.754893135573</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>3863.134304431752</v>
+        <v>3839.5681271059093</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>3779.527937045841</v>
+        <v>3770.5937242495656</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>52.31674201395901</v>
+        <v>52.20354017297652</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>54.385321903400026</v>
+        <v>54.382606864882774</v>
       </c>
     </row>
     <row r="18">
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>54.93257911465696</v>
+        <v>54.813717181625336</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>46.94349329138042</v>
+        <v>47.02113908308371</v>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>59.044154826450324</v>
+        <v>58.66809182226552</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>63.07252685536315</v>
+        <v>62.91636989088349</v>
       </c>
     </row>
     <row r="22">
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>101.69561082627021</v>
+        <v>101.47556405114226</v>
       </c>
     </row>
     <row r="24">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>105.71660845153355</v>
+        <v>105.71133083886502</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>106.78039136758372</v>
+        <v>106.54934225369936</v>
       </c>
     </row>
     <row r="26">
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>91.2508508903723</v>
+        <v>91.40178223493594</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>114.77265517020582</v>
+        <v>114.04164717071052</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>122.60318395210982</v>
+        <v>122.29963909674977</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>1.039539539539543</v>
+        <v>1.0417417417417654</v>
       </c>
     </row>
     <row r="31">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8972938964520205</v>
+        <v>0.9007270182688584</v>
       </c>
     </row>
     <row r="33">
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1285900565195042</v>
+        <v>1.1238335872982694</v>
       </c>
     </row>
     <row r="34">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1.2055897295465055</v>
+        <v>1.2052127055446813</v>
       </c>
     </row>
     <row r="35">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>28.868039355926804</v>
+        <v>28.771537366244743</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7827.793239967063</v>
+        <v>7831.952671769855</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>25681.73635159797</v>
+        <v>25695.382781397166</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7392.390022821606</v>
+        <v>7398.704424075471</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>24253.248106370098</v>
+        <v>24273.964645916894</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>16.517602064291346</v>
+        <v>16.43795863103758</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>21.19696958211963</v>
+        <v>21.220879108950975</v>
       </c>
     </row>
     <row r="8">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>303.466499094959</v>
+        <v>303.79663176996075</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3907.0563966831032</v>
+        <v>3904.318686903628</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>12818.426498304143</v>
+        <v>12809.444510838672</v>
       </c>
     </row>
     <row r="12">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>3333.3939016972427</v>
+        <v>3198.642490909092</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10936.331698481765</v>
+        <v>10494.2338940587</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>14670.943339659345</v>
+        <v>14686.732671717058</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>3298.159266464554</v>
+        <v>3301.7088495166986</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2363692.478195972</v>
+        <v>2363692.668376413</v>
       </c>
     </row>
     <row r="8">
@@ -1636,7 +1636,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3213.7262976509437</v>
+        <v>3213.7265562242947</v>
       </c>
     </row>
     <row r="9">
@@ -1647,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2148556.6248477865</v>
+        <v>2150867.214276472</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>2921.2230402050664</v>
+        <v>2924.3645664732</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>59.17448491883276</v>
+        <v>59.25195617196795</v>
       </c>
     </row>
     <row r="13">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>118.48704420330995</v>
+        <v>118.58407625488266</v>
       </c>
     </row>
     <row r="14">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>115.02599660248268</v>
+        <v>115.17658867121197</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>230.32038830017052</v>
+        <v>230.50900351921032</v>
       </c>
     </row>
     <row r="16">
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>77.07425973162793</v>
+        <v>77.17496937292074</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>154.32721212151455</v>
+        <v>154.45359740352626</v>
       </c>
     </row>
     <row r="19">
@@ -1745,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>149.82037528826163</v>
+        <v>150.01613916982433</v>
       </c>
     </row>
     <row r="20">
@@ -1756,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>299.9881013161189</v>
+        <v>300.233774650483</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24100382600389747</v>
+        <v>0.2413185917012319</v>
       </c>
     </row>
     <row r="23">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.48256556513992727</v>
+        <v>0.48296076117639297</v>
       </c>
     </row>
     <row r="24">
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>14.049555451146386</v>
+        <v>14.034334938925404</v>
       </c>
     </row>
     <row r="26">
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>63.55556519682605</v>
+        <v>63.67071653943856</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>356.5494363754741</v>
+        <v>356.68885020956736</v>
       </c>
     </row>
     <row r="3">
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>79.79669134995962</v>
+        <v>79.81395838144195</v>
       </c>
     </row>
     <row r="4">
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>250.92553584091047</v>
+        <v>250.91690824519253</v>
       </c>
     </row>
     <row r="5">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>687.2716635663442</v>
+        <v>687.4197168362018</v>
       </c>
     </row>
     <row r="6">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1145.4527726105737</v>
+        <v>1145.6995280603364</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1169.7816154050988</v>
+        <v>1170.2390098739083</v>
       </c>
     </row>
     <row r="9">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>261.80016847099614</v>
+        <v>261.8568188367518</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>823.2465086644044</v>
+        <v>823.2182029041749</v>
       </c>
     </row>
     <row r="11">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2254.828292540499</v>
+        <v>2255.3140316148356</v>
       </c>
     </row>
     <row r="12">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3758.047154234165</v>
+        <v>3758.856719358059</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>44.45929631018265</v>
+        <v>44.4641062749282</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>51.12819075671004</v>
+        <v>51.13372221616741</v>
       </c>
     </row>
     <row r="16">
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>54.68493446152465</v>
+        <v>54.69085071816168</v>
       </c>
     </row>
     <row r="17">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>57.797085203237444</v>
+        <v>57.80333815740665</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>86.42195827033343</v>
+        <v>86.4313080938129</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>99.38525201088342</v>
+        <v>99.39600430788482</v>
       </c>
     </row>
     <row r="21">
@@ -2106,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>106.29900867251011</v>
+        <v>106.31050895538986</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>112.34854575143346</v>
+        <v>112.36070052195676</v>
       </c>
     </row>
     <row r="23">
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1499999999999997</v>
+        <v>1.1499999999999995</v>
       </c>
     </row>
     <row r="25">
@@ -2155,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.2999999999999996</v>
       </c>
     </row>
     <row r="27">
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>10.549945669539046</v>
+        <v>10.552030511228708</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>111.93120605706363</v>
+        <v>111.90786969280674</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>19639.970026294453</v>
+        <v>19640.99363564349</v>
       </c>
     </row>
     <row r="5">
@@ -2243,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>18684.145208189744</v>
+        <v>18684.190670916993</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +2254,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>1006.1722460762867</v>
+        <v>1007.1958554253218</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>955.8636337724724</v>
+        <v>956.8360626540557</v>
       </c>
     </row>
     <row r="8">
@@ -2314,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4431181229764896</v>
+        <v>0.4417458037335681</v>
       </c>
     </row>
     <row r="13">
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>44.93774856066989</v>
+        <v>45.002819126251886</v>
       </c>
     </row>
     <row r="14">
@@ -2336,7 +2336,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>66.83831804914135</v>
+        <v>66.77928656075915</v>
       </c>
     </row>
     <row r="15">
@@ -2358,7 +2358,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>15.85259655292495</v>
+        <v>15.848094534825492</v>
       </c>
     </row>
     <row r="17">
@@ -2369,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>86.99999999999994</v>
+        <v>86.99999999999991</v>
       </c>
     </row>
     <row r="18">
@@ -2380,7 +2380,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>22.989883486825278</v>
+        <v>22.989883486825363</v>
       </c>
     </row>
     <row r="19">
@@ -2402,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5867091019896122</v>
+        <v>3.586709101989584</v>
       </c>
     </row>
     <row r="21">
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.34837177546793896</v>
+        <v>0.34844228051596815</v>
       </c>
     </row>
     <row r="22">
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.40216160498827114</v>
+        <v>0.40148941814043504</v>
       </c>
     </row>
     <row r="24">
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>13.632643875797111</v>
+        <v>13.65359998664835</v>
       </c>
     </row>
     <row r="25">
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>13.211169420698473</v>
+        <v>13.180451702696018</v>
       </c>
     </row>
     <row r="26">
@@ -2462,7 +2462,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>10.333333333333321</v>
+        <v>10.333333333333325</v>
       </c>
     </row>
     <row r="27">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>5.135220284141454</v>
+        <v>5.134733881102697</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>17.417313124512674</v>
+        <v>17.40485552737419</v>
       </c>
     </row>
     <row r="29">
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.666666666666657</v>
+        <v>5.66666666666665</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16603108025902458</v>
+        <v>0.16607251017841662</v>
       </c>
     </row>
     <row r="33">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>7.447523026109305</v>
+        <v>7.435510969443729</v>
       </c>
     </row>
     <row r="35">
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>199.03520242368376</v>
+        <v>199.3234127837183</v>
       </c>
     </row>
     <row r="36">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>166.3861391884799</v>
+        <v>166.36607186639873</v>
       </c>
     </row>
     <row r="37">
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>58.108699850051124</v>
+        <v>58.22876498149745</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>81.80955562636842</v>
+        <v>81.80075082570909</v>
       </c>
     </row>
     <row r="39">
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>260.0993452453919</v>
+        <v>259.72931732973734</v>
       </c>
     </row>
     <row r="40">
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>32.678188692880326</v>
+        <v>32.7133670461439</v>
       </c>
     </row>
     <row r="41">
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>144.30869753214841</v>
+        <v>145.24505643605409</v>
       </c>
     </row>
     <row r="42">
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>5.550299824672777</v>
+        <v>5.55371826338029</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.43998236268640767</v>
+        <v>0.4400921519728058</v>
       </c>
     </row>
     <row r="44">
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>19632.561318936125</v>
+        <v>19633.591222601623</v>
       </c>
     </row>
     <row r="46">
@@ -2670,7 +2670,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>19433.52611651244</v>
+        <v>19434.267809817906</v>
       </c>
     </row>
     <row r="47">
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>19267.13997732396</v>
+        <v>19267.901737951506</v>
       </c>
     </row>
     <row r="48">
@@ -2692,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>19209.031277473907</v>
+        <v>19209.672972970006</v>
       </c>
     </row>
     <row r="49">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>19127.221721847534</v>
+        <v>19127.872222144295</v>
       </c>
     </row>
     <row r="50">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>18867.122376602143</v>
+        <v>18868.142904814555</v>
       </c>
     </row>
     <row r="51">
@@ -2725,7 +2725,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>18834.444187909263</v>
+        <v>18835.42953776841</v>
       </c>
     </row>
     <row r="52">
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>18690.13549037711</v>
+        <v>18690.18448133235</v>
       </c>
     </row>
     <row r="53">
@@ -2747,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>18684.585190552432</v>
+        <v>18684.63076306897</v>
       </c>
     </row>
     <row r="54">
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>18684.145208189744</v>
+        <v>18684.190670916993</v>
       </c>
     </row>
     <row r="55">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>118.10740225281599</v>
+        <v>117.9479493530248</v>
       </c>
     </row>
     <row r="59">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17857210528266096</v>
+        <v>0.17833102098594442</v>
       </c>
     </row>
     <row r="61">
@@ -2823,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>1.1373810579876789</v>
+        <v>1.1373971607897206</v>
       </c>
     </row>
     <row r="62">
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7999896017407873</v>
+        <v>1.8077920962016931</v>
       </c>
     </row>
     <row r="63">
@@ -2845,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05072328831179261</v>
+        <v>0.050652845077629446</v>
       </c>
     </row>
     <row r="64">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0755048149520667</v>
+        <v>0.07590193991262795</v>
       </c>
     </row>
     <row r="65">
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>22.423251643234853</v>
+        <v>22.454753707251204</v>
       </c>
     </row>
     <row r="66">
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>23.83940153861033</v>
+        <v>23.817468937983328</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>15377.590744853023</v>
+        <v>15377.590745700283</v>
       </c>
     </row>
     <row r="68">
@@ -2900,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>10502.025161250147</v>
+        <v>10510.017580788357</v>
       </c>
     </row>
     <row r="69">
@@ -2922,7 +2922,7 @@
         <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>2341.431486648521</v>
+        <v>2347.3953341068873</v>
       </c>
     </row>
     <row r="71">
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6736910957986587</v>
+        <v>0.6737264369300426</v>
       </c>
     </row>
     <row r="78">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1313064669805817</v>
+        <v>1.1313496440359427</v>
       </c>
     </row>
     <row r="79">
@@ -3009,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.042391366597187105</v>
+        <v>0.042432433525211685</v>
       </c>
     </row>
     <row r="80">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08991300268957983</v>
+        <v>0.08993656306013782</v>
       </c>
     </row>
     <row r="81">
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>15.892176871772795</v>
+        <v>15.877628996454819</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>12.582234305825166</v>
+        <v>12.579418264843452</v>
       </c>
     </row>
     <row r="83">
@@ -3053,7 +3053,7 @@
         <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>7251.752393790314</v>
+        <v>7251.752393790313</v>
       </c>
     </row>
     <row r="84">
@@ -3075,7 +3075,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>2723.501641753072</v>
+        <v>2726.1395855967944</v>
       </c>
     </row>
     <row r="86">
@@ -3086,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>3464.4988215769677</v>
+        <v>3469.9052953619585</v>
       </c>
     </row>
     <row r="87">
@@ -3107,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>303.3145158333789</v>
+        <v>303.9924036007035</v>
       </c>
     </row>
     <row r="90">
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>303.7932198367963</v>
+        <v>303.9924036007035</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.48791636635029023</v>
+        <v>0.48900682697436404</v>
       </c>
     </row>
     <row r="92">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.48868641692720705</v>
+        <v>0.48900682697436404</v>
       </c>
     </row>
     <row r="93">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3553789685132583</v>
+        <v>0.35380928410224355</v>
       </c>
     </row>
     <row r="94">
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3497087038567518</v>
+        <v>0.3492637210213266</v>
       </c>
     </row>
     <row r="95">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.028850836197738077</v>
+        <v>0.028753958806376965</v>
       </c>
     </row>
     <row r="96">
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.028713868689584046</v>
+        <v>0.028699018798639744</v>
       </c>
     </row>
     <row r="97">
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>12.317804796975702</v>
+        <v>12.304715551855656</v>
       </c>
     </row>
     <row r="98">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>12.179086964467752</v>
+        <v>12.169883697831535</v>
       </c>
     </row>
     <row r="99">
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>3478.1839787939625</v>
+        <v>3482.016814775581</v>
       </c>
     </row>
     <row r="100">
@@ -3228,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>3472.606861802098</v>
+        <v>3475.3637472090213</v>
       </c>
     </row>
     <row r="101">
@@ -3239,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>3478.1839787939625</v>
+        <v>3482.016814775581</v>
       </c>
     </row>
     <row r="102">
@@ -3250,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>3472.606861802098</v>
+        <v>3475.3637472090213</v>
       </c>
     </row>
     <row r="103">
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3942508618851308</v>
+        <v>0.394266449293761</v>
       </c>
     </row>
     <row r="110">
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3920905832671373</v>
+        <v>0.3921023237290794</v>
       </c>
     </row>
     <row r="111">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02978980231217952</v>
+        <v>0.029797638538616368</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02973761991909043</v>
+        <v>0.02973773224636</v>
       </c>
     </row>
     <row r="113">
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>13.234423570643902</v>
+        <v>13.231466271490266</v>
       </c>
     </row>
     <row r="114">
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>13.185002173473539</v>
+        <v>13.185347170414248</v>
       </c>
     </row>
     <row r="115">
@@ -3381,7 +3381,7 @@
         <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>1041.159276077151</v>
+        <v>1046.4286005138003</v>
       </c>
     </row>
     <row r="116">
@@ -3392,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>476.2372294964668</v>
+        <v>481.9818527669747</v>
       </c>
     </row>
     <row r="117">
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>3178.894862861076</v>
+        <v>3184.755419958245</v>
       </c>
     </row>
     <row r="118">
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>3173.967070209359</v>
+        <v>3179.036016727063</v>
       </c>
     </row>
     <row r="119">
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6591576891098199</v>
+        <v>0.6591797088834467</v>
       </c>
     </row>
     <row r="126">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8503002894445352</v>
+        <v>0.8503292074232497</v>
       </c>
     </row>
     <row r="127">
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04146321779186516</v>
+        <v>0.04143229920428898</v>
       </c>
     </row>
     <row r="128">
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05670150537195678</v>
+        <v>0.056662037865138765</v>
       </c>
     </row>
     <row r="129">
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="n">
-        <v>15.897407972980398</v>
+        <v>15.909802775685927</v>
       </c>
     </row>
     <row r="130">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>14.996079625516849</v>
+        <v>15.007035388439736</v>
       </c>
     </row>
     <row r="131">
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>7199.414490810046</v>
+        <v>7199.414490810045</v>
       </c>
     </row>
     <row r="132">
@@ -3556,7 +3556,7 @@
         <v>127</v>
       </c>
       <c r="C132" t="n">
-        <v>6274.189210039076</v>
+        <v>6274.189210039077</v>
       </c>
     </row>
     <row r="133">
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>2665.6259215029636</v>
+        <v>2672.6636962099196</v>
       </c>
     </row>
     <row r="134">
@@ -3578,7 +3578,7 @@
         <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>2887.150989061744</v>
+        <v>2892.669937305484</v>
       </c>
     </row>
     <row r="135">
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>299.5740237396093</v>
+        <v>299.6611074352231</v>
       </c>
     </row>
     <row r="138">
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>299.5740237396093</v>
+        <v>299.6611074352231</v>
       </c>
     </row>
     <row r="139">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.46929824649276647</v>
+        <v>0.4694346676188023</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.46929824649276647</v>
+        <v>0.4694346676188023</v>
       </c>
     </row>
     <row r="141">
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2861684311340667</v>
+        <v>0.2860118567356008</v>
       </c>
     </row>
     <row r="142">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0.27937648694699074</v>
+        <v>0.27923499169608135</v>
       </c>
     </row>
     <row r="143">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0.02800671527183455</v>
+        <v>0.02793452431217222</v>
       </c>
     </row>
     <row r="144">
@@ -3676,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.027932033374487075</v>
+        <v>0.027852615644075995</v>
       </c>
     </row>
     <row r="145">
@@ -3687,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>10.217850553215609</v>
+        <v>10.238651409967762</v>
       </c>
     </row>
     <row r="146">
@@ -3698,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>10.002010351390002</v>
+        <v>10.025449504074572</v>
       </c>
     </row>
     <row r="147">
@@ -3709,7 +3709,7 @@
         <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>4126.925274693098</v>
+        <v>4118.681076271244</v>
       </c>
     </row>
     <row r="148">
@@ -3720,7 +3720,7 @@
         <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>4129.994334418317</v>
+        <v>4120.6174814426695</v>
       </c>
     </row>
     <row r="149">
@@ -3731,7 +3731,7 @@
         <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>4126.925274693098</v>
+        <v>4118.681076271244</v>
       </c>
     </row>
     <row r="150">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>4129.994334418317</v>
+        <v>4120.6174814426695</v>
       </c>
     </row>
     <row r="151">
@@ -3807,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3859347008576641</v>
+        <v>0.3859555761794282</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0.38478608296908096</v>
+        <v>0.3848058436279777</v>
       </c>
     </row>
     <row r="159">
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02958892212010017</v>
+        <v>0.02956758091080675</v>
       </c>
     </row>
     <row r="160">
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.029561176796107248</v>
+        <v>0.029535754562387828</v>
       </c>
     </row>
     <row r="161">
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>13.043215947210637</v>
+        <v>13.053336265273026</v>
       </c>
     </row>
     <row r="162">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>13.016602337013571</v>
+        <v>13.028475125467319</v>
       </c>
     </row>
     <row r="163">
@@ -3873,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>686.744563996031</v>
+        <v>689.6927055033152</v>
       </c>
     </row>
     <row r="164">
@@ -3884,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>390.37060156368864</v>
+        <v>393.171327471838</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         <v>127</v>
       </c>
       <c r="C165" t="n">
-        <v>3159.924940712926</v>
+        <v>3162.79124407132</v>
       </c>
     </row>
     <row r="166">
@@ -3906,7 +3906,7 @@
         <v>127</v>
       </c>
       <c r="C166" t="n">
-        <v>3157.304838498404</v>
+        <v>3159.7527031580394</v>
       </c>
     </row>
     <row r="167">
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5008668782785157</v>
+        <v>0.5008930818183197</v>
       </c>
     </row>
     <row r="174">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4979854148124008</v>
+        <v>0.49799258136696734</v>
       </c>
     </row>
     <row r="175">
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0.033187143431166244</v>
+        <v>0.033300513581994866</v>
       </c>
     </row>
     <row r="176">
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0330748476272444</v>
+        <v>0.033176110083130365</v>
       </c>
     </row>
     <row r="177">
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>15.092196148709462</v>
+        <v>15.041602303970043</v>
       </c>
     </row>
     <row r="178">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>15.056317731973477</v>
+        <v>15.010577795863727</v>
       </c>
     </row>
     <row r="179">
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>2751.278960164029</v>
+        <v>2760.6775669266854</v>
       </c>
     </row>
     <row r="180">
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>2741.9694188566946</v>
+        <v>2750.364274078611</v>
       </c>
     </row>
     <row r="181">
@@ -4059,7 +4059,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="n">
-        <v>2751.278960164029</v>
+        <v>2760.6775669266854</v>
       </c>
     </row>
     <row r="182">
@@ -4070,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>2741.9694188566946</v>
+        <v>2750.364274078611</v>
       </c>
     </row>
     <row r="183">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.38212456011350227</v>
+        <v>0.38212556174600676</v>
       </c>
     </row>
     <row r="190">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.38192668471572677</v>
+        <v>0.38192758033239843</v>
       </c>
     </row>
     <row r="191">
@@ -4157,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.029496886648202898</v>
+        <v>0.02946156027700475</v>
       </c>
     </row>
     <row r="192">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.029492106888914734</v>
+        <v>0.02945607984988975</v>
       </c>
     </row>
     <row r="193">
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>12.95474212824367</v>
+        <v>12.970309724032582</v>
       </c>
     </row>
     <row r="194">
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>12.950132255870889</v>
+        <v>12.966001663450404</v>
       </c>
     </row>
     <row r="195">
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="n">
-        <v>349.810075704666</v>
+        <v>351.55630893671866</v>
       </c>
     </row>
     <row r="196">
@@ -4212,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="n">
-        <v>290.5147646234616</v>
+        <v>292.2051200901129</v>
       </c>
     </row>
     <row r="197">
@@ -4223,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="C197" t="n">
-        <v>3151.23366200253</v>
+        <v>3152.669189564188</v>
       </c>
     </row>
     <row r="198">
@@ -4234,7 +4234,7 @@
         <v>127</v>
       </c>
       <c r="C198" t="n">
-        <v>3150.782290164197</v>
+        <v>3152.145959509894</v>
       </c>
     </row>
     <row r="199">
@@ -4255,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>106.07016599704374</v>
+        <v>106.08177089067132</v>
       </c>
     </row>
     <row r="202">
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.16038071731830156</v>
+        <v>0.16039826420480727</v>
       </c>
     </row>
     <row r="204">
@@ -4299,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.649355101719634</v>
+        <v>1.6489982785893904</v>
       </c>
     </row>
     <row r="206">
@@ -4310,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="n">
-        <v>1.5308973825658088</v>
+        <v>1.5309134853678505</v>
       </c>
     </row>
     <row r="207">
@@ -4321,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>0.11775525948990531</v>
+        <v>0.1176720278707686</v>
       </c>
     </row>
     <row r="208">
@@ -4332,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.11060085891049584</v>
+        <v>0.11052132071767218</v>
       </c>
     </row>
     <row r="209">
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>14.006636381800226</v>
+        <v>14.013511183816567</v>
       </c>
     </row>
     <row r="210">
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>13.841640993083907</v>
+        <v>13.851748019539002</v>
       </c>
     </row>
     <row r="211">
@@ -4365,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="C211" t="n">
-        <v>-599.9421957592544</v>
+        <v>-600.0382296501289</v>
       </c>
     </row>
     <row r="212">
@@ -4387,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="C213" t="n">
-        <v>2005.3322165967393</v>
+        <v>2004.3405597057913</v>
       </c>
     </row>
     <row r="214">
@@ -4469,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1005.9018895790216</v>
+        <v>1003.72762359578</v>
       </c>
     </row>
     <row r="7">
@@ -4534,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1155.8429081595457</v>
+        <v>1153.366417551853</v>
       </c>
     </row>
     <row r="14">
@@ -4599,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1757.1198289560532</v>
+        <v>1753.453536460314</v>
       </c>
     </row>
     <row r="21">
@@ -4659,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1882.5900978598067</v>
+        <v>1882.444060838841</v>
       </c>
     </row>
     <row r="27">
@@ -4779,7 +4779,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>60.36378516085688</v>
+        <v>60.7912190605788</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>117.33781132779954</v>
+        <v>118.16867635965642</v>
       </c>
     </row>
     <row r="9">
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>95.44352464869061</v>
+        <v>96.11935698483525</v>
       </c>
     </row>
     <row r="13">
@@ -4839,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>185.52736972747635</v>
+        <v>186.84108269190435</v>
       </c>
     </row>
     <row r="14">
@@ -5066,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>95.44352464869061</v>
+        <v>96.11935698483525</v>
       </c>
     </row>
     <row r="39">
@@ -5077,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>185.52736972747635</v>
+        <v>186.84108269190435</v>
       </c>
     </row>
     <row r="40">
@@ -5088,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>2.077470740092648</v>
+        <v>2.085188280034603</v>
       </c>
     </row>
     <row r="41">
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>2.66074570660874</v>
+        <v>2.6608804004671147</v>
       </c>
     </row>
     <row r="45">
@@ -5164,7 +5164,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>1.9971564874018704</v>
+        <v>1.997237361225091</v>
       </c>
     </row>
     <row r="49">
@@ -5202,7 +5202,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0028435125981297604</v>
+        <v>0.0027626387749088988</v>
       </c>
     </row>
     <row r="53">
@@ -5240,7 +5240,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6607457066087399</v>
+        <v>-0.6608804004671147</v>
       </c>
     </row>
     <row r="57">
@@ -5278,7 +5278,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.07747074009264798</v>
+        <v>-0.0851882800346031</v>
       </c>
     </row>
     <row r="61">
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>45.614275563186766</v>
+        <v>45.61921048289</v>
       </c>
     </row>
     <row r="65">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>88.66705833016866</v>
+        <v>88.67665104665441</v>
       </c>
     </row>
     <row r="66">
@@ -5331,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>64.50832713928237</v>
+        <v>64.5153061696559</v>
       </c>
     </row>
     <row r="68">
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>125.39415642625083</v>
+        <v>125.40772257600497</v>
       </c>
     </row>
     <row r="69">
@@ -5369,7 +5369,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>80.02673335832876</v>
+        <v>80.03539129487075</v>
       </c>
     </row>
     <row r="72">
@@ -5380,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>155.55952488660017</v>
+        <v>155.57635456886322</v>
       </c>
     </row>
     <row r="73">
@@ -5417,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>64.50832713928237</v>
+        <v>64.5153061696559</v>
       </c>
     </row>
     <row r="78">
@@ -5428,7 +5428,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>125.39415642625083</v>
+        <v>125.40772257600497</v>
       </c>
     </row>
     <row r="79">
@@ -5439,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>1.5226605207528432</v>
+        <v>1.5227594610548538</v>
       </c>
     </row>
     <row r="80">
@@ -5455,7 +5455,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>80.02673335832876</v>
+        <v>80.03539129487075</v>
       </c>
     </row>
     <row r="82">
@@ -5466,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>155.55952488660017</v>
+        <v>155.57635456886322</v>
       </c>
     </row>
     <row r="83">
@@ -5477,7 +5477,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>1.5226605207528432</v>
+        <v>1.5227594610548538</v>
       </c>
     </row>
   </sheetData>
